--- a/data/gbuying.xlsx
+++ b/data/gbuying.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban10/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban23/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6E3E1-5ECA-2F49-95F5-722392E4B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E9038-1FBF-7042-91AD-A6549EE514B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="-26880" windowWidth="27180" windowHeight="14120" xr2:uid="{F954F056-1573-DB4E-81D1-E6EB2C1B2E92}"/>
+    <workbookView xWindow="11880" yWindow="-24120" windowWidth="27180" windowHeight="14120" xr2:uid="{F954F056-1573-DB4E-81D1-E6EB2C1B2E92}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"https://www.facebook.com/groups/803121117564844</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>週三～週五:14:00~20:00/週六:10:00~14:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,9 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.facebook.com/pages/%E7%BD%B5%E7%BD%B5%E8%99%9F%E8%94%AC%E9%A3%9F%E6%A3%A7/100329064817701</t>
-  </si>
-  <si>
     <t>https://menupapa.com/menu/8821</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +349,6 @@
   </si>
   <si>
     <t>0920-292-068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/https://www.facebook.com/groups/831740536938972</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -699,6 +688,18 @@
     <t>https://www.google.com/maps/place/No.+361,+Wenqing+Rd,+Guishan+District,+Taoyuan+City,+333/@25.0395205,121.3893913,17z/data=!3m1!4b1!4m6!3m5!1s0x3442a77171cbf585:0xf45b856ecb63a27e!8m2!3d25.0395157!4d121.3919716!16s%2Fg%2F11h56ccnvn?authuser=0&amp;entry=ttu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.facebook.com/groups/803121117564844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/831740536938972</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/%E7%BD%B5%E7%BD%B5%E8%99%9F%E8%94%AC%E9%A3%9F%E6%A3%A7/100329064817701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -847,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,21 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1256,10 +1242,10 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1288,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1306,10 +1292,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
@@ -1318,16 +1304,16 @@
         <v>8</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -1335,92 +1321,92 @@
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="126" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="H2" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="M2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="N2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="21" t="s">
+      <c r="P2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="12.5" customHeight="1">
       <c r="A3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="C3" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="17">
         <v>70</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="O3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>89</v>
-      </c>
       <c r="P3" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="19"/>
@@ -1441,40 +1427,40 @@
         <v>1425</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
+      <c r="L4" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="112">
@@ -1492,31 +1478,31 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="M5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>50</v>
-      </c>
       <c r="P5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="112">
@@ -1534,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="Q6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="409.6">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="12"/>
       <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
         <v>93</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="O7" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="P7" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>101</v>
-      </c>
       <c r="Q7" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1601,33 +1587,33 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" t="s">
-        <v>62</v>
-      </c>
       <c r="Q8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="80">
       <c r="A9" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1640,30 +1626,30 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
+      <c r="O9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" t="s">
-        <v>68</v>
-      </c>
       <c r="Q9" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1676,25 +1662,25 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1724,6 +1710,9 @@
     <hyperlink ref="L2" r:id="rId22" xr:uid="{27F8BC81-4168-7A4C-B06D-5452EDCA2647}"/>
     <hyperlink ref="M2" r:id="rId23" xr:uid="{BEA991B2-7E68-F94E-A00A-A02C4DF5B5F5}"/>
     <hyperlink ref="Q2" r:id="rId24" xr:uid="{896E7927-D3C1-DB43-8FCC-236FADBADF36}"/>
+    <hyperlink ref="L4" r:id="rId25" xr:uid="{2E3E30AA-EFAA-534B-BA56-DF5F66348ACA}"/>
+    <hyperlink ref="L10" r:id="rId26" xr:uid="{B70BDD66-7CA8-6347-9C5D-FBDD6BECD751}"/>
+    <hyperlink ref="L8" r:id="rId27" xr:uid="{9D48AEAC-DD5F-6A44-8E79-1F31E882A44C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/gbuying.xlsx
+++ b/data/gbuying.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban23/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban13/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E9038-1FBF-7042-91AD-A6549EE514B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C822DC-4A19-FA45-97A9-90E92C10FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="-24120" windowWidth="27180" windowHeight="14120" xr2:uid="{F954F056-1573-DB4E-81D1-E6EB2C1B2E92}"/>
+    <workbookView xWindow="1560" yWindow="2760" windowWidth="27180" windowHeight="14200" xr2:uid="{F954F056-1573-DB4E-81D1-E6EB2C1B2E92}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -698,6 +698,50 @@
   </si>
   <si>
     <t>https://www.facebook.com/pages/%E7%BD%B5%E7%BD%B5%E8%99%9F%E8%94%AC%E9%A3%9F%E6%A3%A7/100329064817701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有感覺團購</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路272 號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0966-508-876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00 - 20:00 週一,六,日公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUY-G15.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.shop2000.com.tw/%E6%9C%89%E6%84%9F%E8%A6%BA%E5%9C%98%E8%B3%BC/product/630446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%E6%9C%89%E6%84%9F%E8%A6%BA%E5%9C%98%E8%B3%BC/@25.047969,121.3843895,17z/data=!4m6!3m5!1s0x3442a7b389299f87:0x4763abff983a7333!8m2!3d25.047969!4d121.3843895!16s%2Fg%2F11t1s870s4?authuser=0&amp;hl=zh-TW&amp;entry=ttu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/privacy/consent/gdp/?params%5Bapp_id%5D=649277785218608&amp;params%5Bkid_directed_site%5D=false&amp;params%5Blogger_id%5D=%22e8a4f296-4429-42b5-bb90-0d05c31938b7%22&amp;params%5Bnext%5D=%22read%22&amp;params%5Bredirect_uri%5D=%22https%3A%5C%2F%5C%2Fwww.shop2000.com.tw%5C%2Fcomm%5C%2Flogin_3nd.aspx%22&amp;params%5Bresponse_type%5D=%22code%22&amp;params%5Breturn_scopes%5D=false&amp;params%5Bscope%5D=%5B%22email%22%5D&amp;params%5Bstate%5D=%22facebook%7C112717%7Chttps%3A%5C%2F%5C%2Fwww.shop2000.com.tw%5C%2F%5Cu6709%5Cu611f%5Cu89ba%5Cu5718%5Cu8cfc%5C%2Fproduct%5C%2F630446%7Cpc%7Cx%7Cosn%22&amp;params%5Bsteps%5D=%7B%22read%22%3A%5B%22email%22%2C%22baseline%22%2C%22public_profile%22%5D%7D&amp;params%5Btp%5D=%22unspecified%22&amp;params%5Bcui_gk%5D=%22%5BPASS%5D%3Alogin_platformization_read%22&amp;source=gdp_delegated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://access.line.me/oauth2/v2.1/login?returnUri=%2Foauth2%2Fv2.1%2Fauthorize%2Fconsent%3Fresponse_type%3Dcode%26client_id%3D2002363391%26redirect_uri%3Dhttps%253A%252F%252Fwww.shop2000.com.tw%252Fcomm%252Flogin_3nd.aspx%26scope%3Dprofile%2Bopenid%2Bemail%26state%3Dline%257C112717%257Chttps%253A%252F%252Fwww.shop2000.com.tw%252F%25E6%259C%2589%25E6%2584%259F%25E8%25A6%25BA%25E5%259C%2598%25E8%25B3%25BC%252Fproduct%252F630446%257Cpc%257Cx%257Cosn&amp;loginChannelId=2002363391&amp;loginState=IPoRcU5MQpMDZCH2OnRhI0#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鮮批發, 日韓服飾, 地方美食, 生活雜貨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1239,13 +1283,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B11BB3-1E90-2C43-B475-F86463603E01}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1319,400 +1363,446 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="126" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>99</v>
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>101</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="16"/>
+        <v>115</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="G2" s="16" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="16"/>
+        <v>118</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>106</v>
+      <c r="L2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>26</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="20" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>78</v>
+    <row r="3" spans="1:20" s="6" customFormat="1" ht="126" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="17">
-        <v>70</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D3" s="17"/>
       <c r="E3" s="16" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>83</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="21" t="s">
-        <v>84</v>
+      <c r="L3" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="P3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="1:20" ht="320">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:20" s="6" customFormat="1" ht="12.5" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="17">
+        <v>70</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+    </row>
+    <row r="5" spans="1:20" ht="320">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5" s="8">
         <v>44909</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D5" s="12">
         <v>1425</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O5" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="112">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8">
-        <v>44475</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" t="s">
-        <v>53</v>
+      <c r="Q5" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="112">
       <c r="A6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8">
-        <v>44771</v>
+        <v>44475</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="409.6">
+    <row r="7" spans="1:20" ht="112">
       <c r="A7" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44771</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>91</v>
+        <v>69</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="9" t="s">
-        <v>55</v>
+    <row r="8" spans="1:20" ht="409.6">
+      <c r="A8" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8">
-        <v>44259</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="12"/>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="80">
+    <row r="9" spans="1:20">
       <c r="A9" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8">
-        <v>42817</v>
+        <v>44259</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" ht="80">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8">
-        <v>44030</v>
+        <v>42817</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44030</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>76</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N11" t="s">
         <v>75</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q11" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1" xr:uid="{CA6DD58C-EF7D-8E45-84C0-1CBD884A6DFF}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{39A84984-9F75-4A44-B5B6-FFF930E203C6}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{197BEB85-291A-2D4D-B8EA-58489965A3E2}"/>
-    <hyperlink ref="K4" r:id="rId4" xr:uid="{CD188681-34B6-3940-AC55-48B9E592117C}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{65911878-E83C-104C-8238-B9E37D888163}"/>
-    <hyperlink ref="M5" r:id="rId6" xr:uid="{4592912F-6108-914A-BCAB-B208AC0CCEA3}"/>
-    <hyperlink ref="Q4" r:id="rId7" xr:uid="{DE1AC98E-DFF4-2A4E-9AE0-A827E17B6EB8}"/>
-    <hyperlink ref="Q8" r:id="rId8" xr:uid="{D6714E07-262C-8049-BD6A-C16730CDADE8}"/>
-    <hyperlink ref="M8" r:id="rId9" xr:uid="{28CAB9BD-AA2C-934B-8A92-A1C476D3F058}"/>
-    <hyperlink ref="I8" r:id="rId10" xr:uid="{8B6467D1-5BB7-4248-87EF-B88FA1136361}"/>
-    <hyperlink ref="Q9" r:id="rId11" xr:uid="{090106F9-1692-B846-918C-7D136DD8EDD6}"/>
-    <hyperlink ref="M9" r:id="rId12" xr:uid="{40DDA9C7-DD05-7249-A2A5-C4D31F67846E}"/>
-    <hyperlink ref="M6" r:id="rId13" xr:uid="{0E40B1A2-64A8-8042-B705-FCCA9F7D1909}"/>
-    <hyperlink ref="M10" r:id="rId14" xr:uid="{D6AB8A50-1BA7-234F-A118-68A962CD0857}"/>
-    <hyperlink ref="I3" r:id="rId15" xr:uid="{764BC226-5160-3442-BCEA-7B4F58AB376D}"/>
-    <hyperlink ref="M3" r:id="rId16" xr:uid="{34D7AA83-BC63-3044-B013-F82C5AD03D42}"/>
-    <hyperlink ref="L3" r:id="rId17" xr:uid="{739629B1-F18A-4C45-95FC-4837F6B63FC4}"/>
-    <hyperlink ref="Q7" r:id="rId18" xr:uid="{4EBE2EBB-03C1-EE43-B6B7-3C59F2D5AE00}"/>
-    <hyperlink ref="L7" r:id="rId19" xr:uid="{D9E3F78D-6D78-4C4B-8ABA-384115EF8122}"/>
-    <hyperlink ref="M7" r:id="rId20" xr:uid="{C0586F05-0EEF-4F46-A06F-8B589D6D7AB4}"/>
-    <hyperlink ref="A2" r:id="rId21" display="https://www.facebook.com/profile.php?id=61550273143551&amp;__cft__%5b0%5d=AZVmhPbnUSacT7Kj_oHrWLwkOLgUj8PZf8R5A4Z-Pb4dj-tGcB4sxcFlbSvMc1B-QEmBtD4TIvQJsg4qHrCf4waeMUKqrOWf6lqhO92XYF-El3_L90Ykw_rskUfUITyLSGk0LhdGk8U3ujYOSQ8Yyf3zA24OGyEjlr50zcPOSWz1-g" xr:uid="{01F0075C-E373-9441-8BAB-7BA906EF0F9C}"/>
-    <hyperlink ref="L2" r:id="rId22" xr:uid="{27F8BC81-4168-7A4C-B06D-5452EDCA2647}"/>
-    <hyperlink ref="M2" r:id="rId23" xr:uid="{BEA991B2-7E68-F94E-A00A-A02C4DF5B5F5}"/>
-    <hyperlink ref="Q2" r:id="rId24" xr:uid="{896E7927-D3C1-DB43-8FCC-236FADBADF36}"/>
-    <hyperlink ref="L4" r:id="rId25" xr:uid="{2E3E30AA-EFAA-534B-BA56-DF5F66348ACA}"/>
-    <hyperlink ref="L10" r:id="rId26" xr:uid="{B70BDD66-7CA8-6347-9C5D-FBDD6BECD751}"/>
-    <hyperlink ref="L8" r:id="rId27" xr:uid="{9D48AEAC-DD5F-6A44-8E79-1F31E882A44C}"/>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{CA6DD58C-EF7D-8E45-84C0-1CBD884A6DFF}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{39A84984-9F75-4A44-B5B6-FFF930E203C6}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{197BEB85-291A-2D4D-B8EA-58489965A3E2}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{CD188681-34B6-3940-AC55-48B9E592117C}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{65911878-E83C-104C-8238-B9E37D888163}"/>
+    <hyperlink ref="M6" r:id="rId6" xr:uid="{4592912F-6108-914A-BCAB-B208AC0CCEA3}"/>
+    <hyperlink ref="Q5" r:id="rId7" xr:uid="{DE1AC98E-DFF4-2A4E-9AE0-A827E17B6EB8}"/>
+    <hyperlink ref="Q9" r:id="rId8" xr:uid="{D6714E07-262C-8049-BD6A-C16730CDADE8}"/>
+    <hyperlink ref="M9" r:id="rId9" xr:uid="{28CAB9BD-AA2C-934B-8A92-A1C476D3F058}"/>
+    <hyperlink ref="I9" r:id="rId10" xr:uid="{8B6467D1-5BB7-4248-87EF-B88FA1136361}"/>
+    <hyperlink ref="Q10" r:id="rId11" xr:uid="{090106F9-1692-B846-918C-7D136DD8EDD6}"/>
+    <hyperlink ref="M10" r:id="rId12" xr:uid="{40DDA9C7-DD05-7249-A2A5-C4D31F67846E}"/>
+    <hyperlink ref="M7" r:id="rId13" xr:uid="{0E40B1A2-64A8-8042-B705-FCCA9F7D1909}"/>
+    <hyperlink ref="M11" r:id="rId14" xr:uid="{D6AB8A50-1BA7-234F-A118-68A962CD0857}"/>
+    <hyperlink ref="I4" r:id="rId15" xr:uid="{764BC226-5160-3442-BCEA-7B4F58AB376D}"/>
+    <hyperlink ref="M4" r:id="rId16" xr:uid="{34D7AA83-BC63-3044-B013-F82C5AD03D42}"/>
+    <hyperlink ref="L4" r:id="rId17" xr:uid="{739629B1-F18A-4C45-95FC-4837F6B63FC4}"/>
+    <hyperlink ref="Q8" r:id="rId18" xr:uid="{4EBE2EBB-03C1-EE43-B6B7-3C59F2D5AE00}"/>
+    <hyperlink ref="L8" r:id="rId19" xr:uid="{D9E3F78D-6D78-4C4B-8ABA-384115EF8122}"/>
+    <hyperlink ref="M8" r:id="rId20" xr:uid="{C0586F05-0EEF-4F46-A06F-8B589D6D7AB4}"/>
+    <hyperlink ref="A3" r:id="rId21" display="https://www.facebook.com/profile.php?id=61550273143551&amp;__cft__%5b0%5d=AZVmhPbnUSacT7Kj_oHrWLwkOLgUj8PZf8R5A4Z-Pb4dj-tGcB4sxcFlbSvMc1B-QEmBtD4TIvQJsg4qHrCf4waeMUKqrOWf6lqhO92XYF-El3_L90Ykw_rskUfUITyLSGk0LhdGk8U3ujYOSQ8Yyf3zA24OGyEjlr50zcPOSWz1-g" xr:uid="{01F0075C-E373-9441-8BAB-7BA906EF0F9C}"/>
+    <hyperlink ref="L3" r:id="rId22" xr:uid="{27F8BC81-4168-7A4C-B06D-5452EDCA2647}"/>
+    <hyperlink ref="M3" r:id="rId23" xr:uid="{BEA991B2-7E68-F94E-A00A-A02C4DF5B5F5}"/>
+    <hyperlink ref="Q3" r:id="rId24" xr:uid="{896E7927-D3C1-DB43-8FCC-236FADBADF36}"/>
+    <hyperlink ref="L5" r:id="rId25" xr:uid="{2E3E30AA-EFAA-534B-BA56-DF5F66348ACA}"/>
+    <hyperlink ref="L11" r:id="rId26" xr:uid="{B70BDD66-7CA8-6347-9C5D-FBDD6BECD751}"/>
+    <hyperlink ref="L9" r:id="rId27" xr:uid="{9D48AEAC-DD5F-6A44-8E79-1F31E882A44C}"/>
+    <hyperlink ref="I2" r:id="rId28" xr:uid="{0E4FCD76-BCA4-E04E-B995-1685D872210D}"/>
+    <hyperlink ref="Q2" r:id="rId29" xr:uid="{C48CAF5B-747A-A94C-BD8A-A3988AB016CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
